--- a/biology/Zoologie/Adelpha_radiata/Adelpha_radiata.xlsx
+++ b/biology/Zoologie/Adelpha_radiata/Adelpha_radiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha radiata  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre des Adelpha.
 </t>
@@ -511,51 +523,53 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha radiata a été décrit par Hans Fruhstorfer en 1915[1].
-Sous-espèces
-Adelpha radiata radiata, dans le sud-est du Brésil
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha radiata a été décrit par Hans Fruhstorfer en 1915.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha radiata radiata, dans le sud-est du Brésil
 Adelpha radiata aiellae Willmott &amp; Hall, 1999;  présent à Panama, au Costa Rica et en Équateur
 Adelpha radiata explicator Willmott &amp; Hall, 1999;  présent en Équateur
 Adelpha radiata gilletella Brévignon, 1995; présent en Guyane
 Adelpha radiata myrlea Fruhstorfer, 1915, dans le sud-est du Brésil
-Adelpha radiata romeroi Willmott &amp; Neild, 2003; présent au Venezuela
-Noms vernaculaires
-Adelpha radiata se nomme Striated Sister en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adelpha_radiata</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chenille
-La chenille est noire tachée de rose nacré et développe de grandes épines[2].
-</t>
+Adelpha radiata romeroi Willmott &amp; Neild, 2003; présent au Venezuela</t>
         </is>
       </c>
     </row>
@@ -580,10 +594,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha radiata se nomme Striated Sister en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire tachée de rose nacré et développe de grandes épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha radiata est un papillon au dessus marron orné d'une tache orange postdiscale orange aux ailes antérieures proche du bord costal et d'une bande blanche allant aux ailes postérieures de l'angle anal au bord costal et se continuant aux ailes antérieures sur plus de la moitié de l'aire discale.
 Le revers est ocre jaune avec la même bande blanche que sur le dessus, entourée d'une bande orange aux ailes postérieures. Le bord costal des ailes antérieures est orné dans l'aire discale d'une plage rouge marquée de points blancs largement bordés de noir.
@@ -591,36 +681,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Adelpha_radiata</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha radiata est présent à Panama, au Venezuela, au Costa Rica, en Équateur, au Brésil et en Guyane[1],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha radiata est présent à Panama, au Venezuela, au Costa Rica, en Équateur, au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_radiata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
